--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\estudos de custo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BFE49E-AE7A-42BF-BDFB-4AFF7DFE4D9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9955A72-FDE9-4A08-AA1C-A9F32A9479DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
   </bookViews>
@@ -710,10 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B3EA2-C900-4FB0-81B4-820748CD4640}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
@@ -1769,6 +1772,6 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -5,57 +5,202 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9955A72-FDE9-4A08-AA1C-A9F32A9479DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F560B7-3B2D-454E-9571-277393612E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM 31_08_18" sheetId="1" r:id="rId1"/>
+    <sheet name="consolidado comp pra comprar" sheetId="4" r:id="rId1"/>
+    <sheet name="BOM 31_08_18" sheetId="1" r:id="rId2"/>
+    <sheet name="specs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="90">
   <si>
     <t>Basico</t>
   </si>
   <si>
-    <t>Arduino</t>
-  </si>
-  <si>
     <t>placa intermediaria</t>
   </si>
   <si>
-    <t>SD reader</t>
-  </si>
-  <si>
-    <t>SD card</t>
-  </si>
-  <si>
     <t>descrição</t>
   </si>
   <si>
     <t>quantidade</t>
   </si>
   <si>
-    <t>placa Rele 4x</t>
-  </si>
-  <si>
-    <t>RFID NFC</t>
+    <t>placa de montagem</t>
+  </si>
+  <si>
+    <t>tomada 2 m</t>
+  </si>
+  <si>
+    <t>prensa cabo tomada</t>
+  </si>
+  <si>
+    <t>x m</t>
+  </si>
+  <si>
+    <t>xm</t>
+  </si>
+  <si>
+    <t>isolamento</t>
+  </si>
+  <si>
+    <t>kit monta placas - varios</t>
+  </si>
+  <si>
+    <t>conector mic 5 vias (cj M/F)</t>
+  </si>
+  <si>
+    <t>conector kk 8 vias macho</t>
+  </si>
+  <si>
+    <t>conector kk 6 vias macho</t>
+  </si>
+  <si>
+    <t>conector kk 4 vias macho</t>
+  </si>
+  <si>
+    <t>conector kk 5 vias macho</t>
+  </si>
+  <si>
+    <t>conector kk 2 vias macho</t>
+  </si>
+  <si>
+    <t>cabo JP4</t>
+  </si>
+  <si>
+    <t>conector kk 4 vias femea</t>
+  </si>
+  <si>
+    <t>conector kk 8 vias femea</t>
+  </si>
+  <si>
+    <t>0,4 m</t>
+  </si>
+  <si>
+    <t>terminal para conector kk</t>
+  </si>
+  <si>
+    <t>conector  3 + 3 vias femea</t>
+  </si>
+  <si>
+    <t>cabo JP8</t>
+  </si>
+  <si>
+    <t>conector kk 6 vias femea</t>
+  </si>
+  <si>
+    <t>cabo JP5</t>
+  </si>
+  <si>
+    <t>cabo JP7</t>
+  </si>
+  <si>
+    <t>conector kk 5 vias femea</t>
+  </si>
+  <si>
+    <t>cabo X</t>
+  </si>
+  <si>
+    <t>conector kk 2 vias femea</t>
+  </si>
+  <si>
+    <t>cabo flow</t>
+  </si>
+  <si>
+    <t>cabo Rele</t>
+  </si>
+  <si>
+    <t>cabo Led</t>
+  </si>
+  <si>
+    <t>conector kk 3 vias femea</t>
+  </si>
+  <si>
+    <t>cabo RFID</t>
+  </si>
+  <si>
+    <t>cabo SD</t>
+  </si>
+  <si>
+    <t>cabo Alimentação</t>
+  </si>
+  <si>
+    <t>flat cable reles</t>
+  </si>
+  <si>
+    <t>0,5 m</t>
+  </si>
+  <si>
+    <t>flat cable flow meter</t>
+  </si>
+  <si>
+    <t>flat cable caixa fonte</t>
+  </si>
+  <si>
+    <t>Caixa fonte</t>
+  </si>
+  <si>
+    <t>Caixa principal</t>
+  </si>
+  <si>
+    <t>2 m</t>
+  </si>
+  <si>
+    <t>barra pino longo 90º - 20 pinos</t>
+  </si>
+  <si>
+    <t>buzzer passivo 5V</t>
+  </si>
+  <si>
+    <t>LED RGB Alto Brilho Catodo Comum</t>
+  </si>
+  <si>
+    <t>resistor led - de 330 ohms</t>
+  </si>
+  <si>
+    <t>220 ohms</t>
+  </si>
+  <si>
+    <t>resistor buzzer - de 100 ohms</t>
+  </si>
+  <si>
+    <t>SD reader ( SD Card Module Slot Socket Reader For Arduino)</t>
+  </si>
+  <si>
+    <t>SD card (SD Card16 GB,High Speed Memory Card )</t>
+  </si>
+  <si>
+    <t>Arduino Mega 2560</t>
+  </si>
+  <si>
+    <t>placa Rele 4x (4 Channel 5V Relay Module with Optical Coupler Protection )</t>
+  </si>
+  <si>
+    <t>RFID NFC (13.56MHz PN532 On-board Antenna NFC / RFID Module with Smart Card for Arduino)</t>
   </si>
   <si>
     <r>
-      <t>Fonte 24V -</t>
+      <t>Fonte chaveada 24V -</t>
     </r>
     <r>
       <rPr>
@@ -70,7 +215,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Fonte 5V - </t>
+      <t xml:space="preserve">Fonte chaveada 5V - </t>
     </r>
     <r>
       <rPr>
@@ -84,240 +229,112 @@
     </r>
   </si>
   <si>
-    <t>Tela touch 7" / Tela touch 3,5"</t>
-  </si>
-  <si>
-    <t>placa de montagem</t>
-  </si>
-  <si>
-    <t>tomada 2 m</t>
-  </si>
-  <si>
-    <t>prensa cabo tomada</t>
-  </si>
-  <si>
-    <t>cabo manga 5 vias</t>
-  </si>
-  <si>
-    <t>x m</t>
-  </si>
-  <si>
-    <t>xm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowmeter / engate rápido 3/8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">solenoide 24 v / engate rápido 3/8 </t>
-  </si>
-  <si>
-    <t>terminal para solenoide</t>
-  </si>
-  <si>
-    <t>terminal para flowmeter</t>
-  </si>
-  <si>
-    <t>registros</t>
-  </si>
-  <si>
-    <t>isolamento</t>
-  </si>
-  <si>
-    <t>kit monta placas - varios</t>
-  </si>
-  <si>
-    <t>prafusos</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>buzzer</t>
-  </si>
-  <si>
-    <t>resistor led</t>
-  </si>
-  <si>
-    <t>resistor buzzer</t>
-  </si>
-  <si>
-    <t>led RGB</t>
-  </si>
-  <si>
-    <t>conector mic 5 vias (cj M/F)</t>
-  </si>
-  <si>
-    <t>barra de pino 40</t>
-  </si>
-  <si>
-    <t>conector kk 8 vias macho</t>
-  </si>
-  <si>
-    <t>conector kk 6 vias macho</t>
-  </si>
-  <si>
-    <t>conector kk 4 vias macho</t>
-  </si>
-  <si>
-    <t>conector kk 5 vias macho</t>
-  </si>
-  <si>
-    <t>conector kk 2 vias macho</t>
-  </si>
-  <si>
-    <t>conector kk 7 vias macho</t>
-  </si>
-  <si>
-    <t>cabo JP4</t>
-  </si>
-  <si>
-    <t>conector kk 4 vias femea</t>
-  </si>
-  <si>
-    <t>conector kk 8 vias femea</t>
-  </si>
-  <si>
-    <t>conector kk 7 vias femea</t>
-  </si>
-  <si>
-    <t>0,4 m</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 8 vias</t>
-  </si>
-  <si>
-    <t>terminal para conector kk</t>
-  </si>
-  <si>
-    <t>conector  3 + 3 vias femea</t>
-  </si>
-  <si>
-    <t>cabo JP8</t>
-  </si>
-  <si>
-    <t>conector kk 6 vias femea</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 7 vias</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 6 vias</t>
-  </si>
-  <si>
-    <t>cabo JP5</t>
-  </si>
-  <si>
-    <t>cabo JP7</t>
-  </si>
-  <si>
-    <t>conector kk 5 vias femea</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 5 vias</t>
-  </si>
-  <si>
-    <t>cabo X</t>
-  </si>
-  <si>
-    <t>conector kk 2 vias femea</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 4 vias</t>
-  </si>
-  <si>
-    <t>cabo flow</t>
-  </si>
-  <si>
-    <t>cabo Rele</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 26) - 45vias</t>
-  </si>
-  <si>
-    <t>cabo Led</t>
-  </si>
-  <si>
-    <t>conector kk 3 vias femea</t>
-  </si>
-  <si>
-    <t>cabo RFID</t>
-  </si>
-  <si>
-    <t>cabo SD</t>
-  </si>
-  <si>
-    <t>cabo Alimentação</t>
-  </si>
-  <si>
-    <t>mangueira 3/8</t>
-  </si>
-  <si>
-    <t>flat cable reles</t>
-  </si>
-  <si>
-    <t>0,5 m</t>
-  </si>
-  <si>
-    <t>flat cable flow meter</t>
-  </si>
-  <si>
-    <r>
-      <t>conector mic 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (cj M/F)</t>
-    </r>
-  </si>
-  <si>
-    <t>cabo manga 12 vias</t>
-  </si>
-  <si>
-    <t>flat cable caixa fonte</t>
-  </si>
-  <si>
-    <t>Caixa fonte</t>
-  </si>
-  <si>
-    <t>Caixa principal</t>
-  </si>
-  <si>
-    <t>flat cable (AWG 28) - 2 vias</t>
-  </si>
-  <si>
-    <t>2 m</t>
+    <t>cabo manga 12 vias -  vias 24 AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solenoide 24 v / engate rápido 3/8 (Working pressure:0.02-0.8Mpa. 
+Rated power: 4.8W. </t>
+  </si>
+  <si>
+    <t>cabo manga 5 - vias 24 AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowmeter / engate rápido 3/8 (Working range:0.3-10L/min 
+Pressure range: Water pressure 0.8 MPa below ) </t>
+  </si>
+  <si>
+    <t>6 base peq, 10 base gde e 20 fixa alto</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 7 vias</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 6 vias</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 5 vias</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 4 vias</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 8 vias</t>
+  </si>
+  <si>
+    <t>conector kk 10 vias femea</t>
+  </si>
+  <si>
+    <t>https://loja.multcomercial.com.br/conector-circular-macho-e-femea-12-vias-ds-1110-07-12-connfly.html</t>
+  </si>
+  <si>
+    <t>terminal para flowmeter (Conector Macho JS-1001-03 180° Passo 2.5mm - 3 Vias)</t>
+  </si>
+  <si>
+    <t>https://www.eletropecas.com/Produto/barra-de-pinos-dupla-femea-bci003-2e</t>
+  </si>
+  <si>
+    <t>barra de pinos 180º - 40 pinos</t>
+  </si>
+  <si>
+    <t>conector mic 12 vias (cj M/F)</t>
+  </si>
+  <si>
+    <t>terminal para solenoide (Terminal Faston Fêmea)</t>
+  </si>
+  <si>
+    <t>registros engate rapido 3/8 - 3/8 OD</t>
+  </si>
+  <si>
+    <t>mangueira 3/8 para engate rápido</t>
+  </si>
+  <si>
+    <t>parafusos M3x6 cabeça escariada</t>
+  </si>
+  <si>
+    <t>Tela touch 7" / Tela touch 3,5" - (ver aba specs)</t>
+  </si>
+  <si>
+    <t>alternativa - Barra de Pinos Duplos Modu 2x40 Fêmea</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 1 vias</t>
+  </si>
+  <si>
+    <t>flat cable (AWG 24) - 2 vias</t>
+  </si>
+  <si>
+    <t>resistor buzzer - de 220 ohms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantidade para 1 placa </t>
+  </si>
+  <si>
+    <t>espaçador pequeno M/F</t>
+  </si>
+  <si>
+    <t>espaçador grande M/F</t>
+  </si>
+  <si>
+    <t>espaçador grande F/F</t>
+  </si>
+  <si>
+    <t>para 5 placas + 1 reserva</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +363,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -375,11 +429,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,8 +529,131 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,6 +667,435 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95E29FA-E437-4B40-A874-784CD73D2DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610226" y="2438400"/>
+          <a:ext cx="304800" cy="387927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>775896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085220E6-8D8D-4F58-AA77-A9E2D2A0A5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="5438775"/>
+          <a:ext cx="771525" cy="671121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2390775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>55121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EE985D-9707-41A4-BD67-026F56FE97C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="6181726"/>
+          <a:ext cx="695325" cy="740920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>903720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410D7526-B48D-4786-91D2-8308E80DB50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="7058025"/>
+          <a:ext cx="838200" cy="713220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>897800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A75A6F-B04A-46EA-B4B5-EEA7B5A0AD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="2000250"/>
+          <a:ext cx="754925" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DECD97-C346-4DDF-97D1-C87C0F32374A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="3419475"/>
+          <a:ext cx="561975" cy="715241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93E6338-A1CE-409C-A14B-E35C33EC4519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2209800" y="3886200"/>
+          <a:ext cx="523875" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2124076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A128B85-7C6E-45B1-8940-22B2D1F88EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1638300" y="2543175"/>
+          <a:ext cx="1095376" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A551B50A-41D3-4083-AC77-D520A59542B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="381000"/>
+          <a:ext cx="4866667" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,400 +1394,1260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DD138-390C-4C58-95A5-7645B9BBF8DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="59">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="23">
+        <f>C2*$D$1</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E46" si="0">C3*$D$1</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="22">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="61">
+        <v>1</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="27">
+        <v>4</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="60">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="27">
+        <v>12</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="52">
+        <v>5</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="54">
+        <v>6</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="33">
+        <v>10</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="33">
+        <v>20</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="22">
+        <v>150</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="22">
+        <v>2</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="22">
+        <v>3</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="22">
+        <v>3</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="22">
+        <v>3</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="22">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="22">
+        <v>4</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="22">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B33:C46">
+    <sortCondition ref="B33:B46"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{DF53785C-E4DE-4CCF-8D04-8819AFB052AC}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{97510B82-1D53-4F3F-ABB8-C133BB7E334A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B3EA2-C900-4FB0-81B4-820748CD4640}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>21</v>
       </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1111,9 +2656,9 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1">
+        <v>73</v>
+      </c>
+      <c r="D35" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1122,9 +2667,9 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1">
+        <v>69</v>
+      </c>
+      <c r="D36" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1133,9 +2678,9 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="1">
+        <v>74</v>
+      </c>
+      <c r="D37" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1144,10 +2689,10 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,10 +2700,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,9 +2711,12 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1177,10 +2725,10 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="D41" s="9">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,40 +2736,40 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="1">
+        <v>17</v>
+      </c>
+      <c r="D42" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,212 +2777,212 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D47" s="10"/>
       <c r="E47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4">
+        <v>63</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>31</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D52" s="10"/>
       <c r="E52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4">
+        <v>63</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>32</v>
       </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4">
-        <v>2</v>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4">
+        <v>64</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>33</v>
       </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4">
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4">
+        <v>65</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>34</v>
       </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D66" s="10"/>
       <c r="E66" s="4">
         <v>1</v>
       </c>
@@ -1442,9 +2990,9 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D67" s="10"/>
       <c r="E67" s="4">
         <v>1</v>
       </c>
@@ -1452,21 +3000,21 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D68" s="10"/>
       <c r="E68" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D69" s="10"/>
       <c r="E69" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,18 +3022,18 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="1">
+        <v>31</v>
+      </c>
+      <c r="D70" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="4">
         <v>2</v>
       </c>
@@ -1493,21 +3041,21 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D72" s="10"/>
       <c r="E72" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D73" s="10"/>
       <c r="E73" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,18 +3063,18 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="1">
+        <v>32</v>
+      </c>
+      <c r="D74" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D75" s="10"/>
       <c r="E75" s="4">
         <v>2</v>
       </c>
@@ -1534,19 +3082,19 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D76" s="10"/>
       <c r="E76" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D77" s="10"/>
       <c r="E77" s="4">
         <v>8</v>
       </c>
@@ -1556,18 +3104,18 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="1">
+        <v>34</v>
+      </c>
+      <c r="D78" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D79" s="10"/>
       <c r="E79" s="4">
         <v>2</v>
       </c>
@@ -1575,21 +3123,21 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D80" s="10"/>
       <c r="E80" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D81" s="10"/>
       <c r="E81" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,79 +3145,79 @@
         <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="1">
+        <v>35</v>
+      </c>
+      <c r="D82" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D83" s="10"/>
       <c r="E83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4">
+        <v>63</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>39</v>
       </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4">
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
-      <c r="C88" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="4" t="s">
-        <v>43</v>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D89" s="10"/>
       <c r="E89" s="4">
         <v>2</v>
       </c>
@@ -1679,20 +3227,20 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="1">
+        <v>37</v>
+      </c>
+      <c r="D90" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D91" s="10"/>
       <c r="E91" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,20 +3248,20 @@
         <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="1">
+        <v>39</v>
+      </c>
+      <c r="D92" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D93" s="10"/>
       <c r="E93" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,57 +3269,77 @@
         <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="1">
+        <v>40</v>
+      </c>
+      <c r="D94" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D95" s="10"/>
       <c r="E95" s="4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
-      <c r="C96" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D96" s="6"/>
+      <c r="C96" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="12"/>
       <c r="E96" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D97" s="10"/>
       <c r="E97" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D98" s="10"/>
       <c r="E98" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{0B66E6E0-9E71-4E1E-8EC3-826E6BE88AFC}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{B8081205-3FE3-4918-B209-154A3DC605F1}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB9A5DB-8374-416E-A28D-4ED75B8F1D20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F560B7-3B2D-454E-9571-277393612E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0CAF3-5E2C-4B6C-AE8A-4C8981802BC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidado comp pra comprar" sheetId="4" r:id="rId1"/>
@@ -21,11 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -395,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +651,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1400,11 +1407,11 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,9 +1717,8 @@
       <c r="D17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="E17" s="64">
+        <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>87</v>
@@ -1729,9 +1735,8 @@
       <c r="D18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="E18" s="64">
+        <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>87</v>
@@ -1748,9 +1753,8 @@
       <c r="D19" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="23">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="E19" s="64">
+        <v>5</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>87</v>
@@ -1767,9 +1771,8 @@
       <c r="D20" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="60">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="E20" s="65">
+        <v>4</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>87</v>
@@ -1782,7 +1785,7 @@
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,9 +1799,8 @@
       <c r="D22" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="E22" s="64">
+        <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>87</v>
@@ -1816,9 +1818,8 @@
       <c r="D23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="E23" s="64">
+        <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>87</v>
@@ -1835,9 +1836,8 @@
       <c r="D24" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="23" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E24" s="23">
+        <v>10</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>88</v>
@@ -1854,9 +1854,8 @@
       <c r="D25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="23" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E25" s="23">
+        <v>10</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>88</v>
@@ -2246,11 +2245,11 @@
   </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
